--- a/data/manual/dfl.xlsx
+++ b/data/manual/dfl.xlsx
@@ -53,7 +53,7 @@
     <t>pb2014</t>
   </si>
   <si>
-    <t>non-standard report and value in thousands</t>
+    <t>values in thousands</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
